--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@1</t>
+          <t>NJ-20230921-101-A-1@1</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@2</t>
+          <t>NJ-20230921-101-A-1@2</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@3</t>
+          <t>NJ-20230921-101-A-1@3</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@4</t>
+          <t>NJ-20230921-101-A-1@4</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@5</t>
+          <t>NJ-20230921-101-A-1@5</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="7" ht="15" customHeight="1" s="10">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@6</t>
+          <t>NJ-20230921-101-A-1@6</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="8" ht="15" customHeight="1" s="10">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@7</t>
+          <t>NJ-20230921-101-A-1@7</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="9" ht="15" customHeight="1" s="10">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@8</t>
+          <t>NJ-20230921-101-A-1@8</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="10" ht="15" customHeight="1" s="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-A-1@9</t>
+          <t>NJ-20230921-101-A-1@9</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@1</t>
+          <t>NJ-20230925-101-A-1@1</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@2</t>
+          <t>NJ-20230925-101-A-1@2</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@3</t>
+          <t>NJ-20230925-101-A-1@3</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@4</t>
+          <t>NJ-20230925-101-A-1@4</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@5</t>
+          <t>NJ-20230925-101-A-1@5</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="7" ht="15" customHeight="1" s="10">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@6</t>
+          <t>NJ-20230925-101-A-1@6</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="8" ht="15" customHeight="1" s="10">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@7</t>
+          <t>NJ-20230925-101-A-1@7</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="9" ht="15" customHeight="1" s="10">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@8</t>
+          <t>NJ-20230925-101-A-1@8</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="10" ht="15" customHeight="1" s="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230921-101-A-1@9</t>
+          <t>NJ-20230925-101-A-1@9</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="11" ht="15" customHeight="1" s="10">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-201-B-1@1</t>
+          <t>NJ-20230925-201-B-1@1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="12" ht="15" customHeight="1" s="10">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@1</t>
+          <t>NJ-20230925-101-B-1@1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="13" ht="15" customHeight="1" s="10">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@2</t>
+          <t>NJ-20230925-101-B-1@2</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="14" ht="15" customHeight="1" s="10">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@3</t>
+          <t>NJ-20230925-101-B-1@3</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1027,7 +1027,7 @@
     <row r="15" ht="15" customHeight="1" s="10">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@4</t>
+          <t>NJ-20230925-101-B-1@4</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="16" ht="15" customHeight="1" s="10">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@5</t>
+          <t>NJ-20230925-101-B-1@5</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="17" ht="15" customHeight="1" s="10">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@6</t>
+          <t>NJ-20230925-101-B-1@6</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="18" ht="15" customHeight="1" s="10">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@7</t>
+          <t>NJ-20230925-101-B-1@7</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="19" ht="15" customHeight="1" s="10">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@8</t>
+          <t>NJ-20230925-101-B-1@8</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="20" ht="15" customHeight="1" s="10">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-B-1@9</t>
+          <t>NJ-20230925-101-B-1@9</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="21" ht="15" customHeight="1" s="10">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230808-201-B-1@2</t>
+          <t>NJ-20230925-201-B-1@2</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="22" ht="15" customHeight="1" s="10">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@1</t>
+          <t>NJ-20230925-101-C-1@1</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="23" ht="15" customHeight="1" s="10">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@2</t>
+          <t>NJ-20230925-101-C-1@2</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="24" ht="15" customHeight="1" s="10">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@3</t>
+          <t>NJ-20230925-101-C-1@3</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="25" ht="15" customHeight="1" s="10">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@4</t>
+          <t>NJ-20230925-101-C-1@4</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="26" ht="15" customHeight="1" s="10">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@5</t>
+          <t>NJ-20230925-101-C-1@5</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="27" ht="15" customHeight="1" s="10">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@6</t>
+          <t>NJ-20230925-101-C-1@6</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="28" ht="15" customHeight="1" s="10">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@7</t>
+          <t>NJ-20230925-101-C-1@7</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@1</t>
+          <t>NJ-20230926-101-A-1@1</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@2</t>
+          <t>NJ-20230926-101-A-1@2</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@3</t>
+          <t>NJ-20230926-101-A-1@3</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@4</t>
+          <t>NJ-20230926-101-A-1@4</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@5</t>
+          <t>NJ-20230926-101-A-1@5</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="7" ht="15" customHeight="1" s="10">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@6</t>
+          <t>NJ-20230926-101-A-1@6</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="8" ht="15" customHeight="1" s="10">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@7</t>
+          <t>NJ-20230926-101-A-1@7</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="9" ht="15" customHeight="1" s="10">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@8</t>
+          <t>NJ-20230926-101-A-1@8</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="10" ht="15" customHeight="1" s="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-A-1@9</t>
+          <t>NJ-20230926-101-A-1@9</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="11" ht="15" customHeight="1" s="10">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-201-B-1@1</t>
+          <t>NJ-20230926-201-B-1@1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="12" ht="15" customHeight="1" s="10">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@1</t>
+          <t>NJ-20230926-101-B-1@1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="13" ht="15" customHeight="1" s="10">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@2</t>
+          <t>NJ-20230926-101-B-1@2</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="14" ht="15" customHeight="1" s="10">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@3</t>
+          <t>NJ-20230926-101-B-1@3</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1027,7 +1027,7 @@
     <row r="15" ht="15" customHeight="1" s="10">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@4</t>
+          <t>NJ-20230926-101-B-1@4</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="16" ht="15" customHeight="1" s="10">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@5</t>
+          <t>NJ-20230926-101-B-1@5</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="17" ht="15" customHeight="1" s="10">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@6</t>
+          <t>NJ-20230926-101-B-1@6</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="18" ht="15" customHeight="1" s="10">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@7</t>
+          <t>NJ-20230926-101-B-1@7</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="19" ht="15" customHeight="1" s="10">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@8</t>
+          <t>NJ-20230926-101-B-1@8</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="20" ht="15" customHeight="1" s="10">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-B-1@9</t>
+          <t>NJ-20230926-101-B-1@9</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="21" ht="15" customHeight="1" s="10">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230925-201-B-1@2</t>
+          <t>NJ-20230926-201-B-1@2</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="22" ht="15" customHeight="1" s="10">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@1</t>
+          <t>NJ-20230926-101-C-1@1</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="23" ht="15" customHeight="1" s="10">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@2</t>
+          <t>NJ-20230926-101-C-1@2</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="24" ht="15" customHeight="1" s="10">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@3</t>
+          <t>NJ-20230926-101-C-1@3</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="25" ht="15" customHeight="1" s="10">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@4</t>
+          <t>NJ-20230926-101-C-1@4</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="26" ht="15" customHeight="1" s="10">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@5</t>
+          <t>NJ-20230926-101-C-1@5</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="27" ht="15" customHeight="1" s="10">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@6</t>
+          <t>NJ-20230926-101-C-1@6</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="28" ht="15" customHeight="1" s="10">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230925-101-C-1@7</t>
+          <t>NJ-20230926-101-C-1@7</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@1</t>
+          <t>NJ-20240111-1AFJ01</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@2</t>
+          <t>NJ-20240111-XXFJ02</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@3</t>
+          <t>NJ-20240111-XXFJ03</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240111-1AFJ01</t>
+          <t>NJ-20240116-1AFJ01</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240111-XXFJ02</t>
+          <t>NJ-20240116-1AFJ02</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240111-XXFJ03</t>
+          <t>NJ-20240116-1AFJ03</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@4</t>
+          <t>NJ-20240116-1AFJ04</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@5</t>
+          <t>NJ-20240116-1AFJ05</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="7" ht="15" customHeight="1" s="10">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@6</t>
+          <t>NJ-20240116-1AFJ06</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="8" ht="15" customHeight="1" s="10">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@7</t>
+          <t>NJ-20240116-1AFJ07</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="9" ht="15" customHeight="1" s="10">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@8</t>
+          <t>NJ-20240116-1AFJ08</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="10" ht="15" customHeight="1" s="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-A-1@9</t>
+          <t>NJ-20240116-1AFJ09</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="11" ht="15" customHeight="1" s="10">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-201-B-1@1</t>
+          <t>NJ-20240116-1AFJ010</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="12" ht="15" customHeight="1" s="10">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@1</t>
+          <t>NJ-20240116-1AFJ011</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="13" ht="15" customHeight="1" s="10">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@2</t>
+          <t>NJ-20240116-1AFJ012</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="14" ht="15" customHeight="1" s="10">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@3</t>
+          <t>NJ-20240116-1AFJ013</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1027,7 +1027,7 @@
     <row r="15" ht="15" customHeight="1" s="10">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@4</t>
+          <t>NJ-20240116-1AFJ014</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="16" ht="15" customHeight="1" s="10">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@5</t>
+          <t>NJ-20240116-1AFJ015</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="17" ht="15" customHeight="1" s="10">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@6</t>
+          <t>NJ-20240116-1AFJ016</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="18" ht="15" customHeight="1" s="10">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@7</t>
+          <t>NJ-20240116-1AFJ017</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="19" ht="15" customHeight="1" s="10">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@8</t>
+          <t>NJ-20240116-XXFJ018</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="20" ht="15" customHeight="1" s="10">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-B-1@9</t>
+          <t>NJ-20240116-XXFJ019</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="21" ht="15" customHeight="1" s="10">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>NJ-20230926-201-B-1@2</t>
+          <t>NJ-20240116-XXFJ020</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="22" ht="15" customHeight="1" s="10">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@1</t>
+          <t>NJ-20240116-XXFJ021</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="23" ht="15" customHeight="1" s="10">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@2</t>
+          <t>NJ-20240116-XXFJ022</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="24" ht="15" customHeight="1" s="10">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@3</t>
+          <t>NJ-20240116-XXFJ023</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="25" ht="15" customHeight="1" s="10">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@4</t>
+          <t>NJ-20240116-XXFJ024</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="26" ht="15" customHeight="1" s="10">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@5</t>
+          <t>NJ-20240116-XXFJ025</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="27" ht="15" customHeight="1" s="10">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@6</t>
+          <t>NJ-20240116-XXFJ026</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="28" ht="15" customHeight="1" s="10">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230926-101-C-1@7</t>
+          <t>NJ-20240116-XXFJ027</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ01</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ02</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ03</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ04</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ05</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="7" ht="15" customHeight="1" s="10">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ06</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="8" ht="15" customHeight="1" s="10">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ07</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="9" ht="15" customHeight="1" s="10">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ08</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="10" ht="15" customHeight="1" s="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ09</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="11" ht="15" customHeight="1" s="10">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ010</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="12" ht="15" customHeight="1" s="10">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ011</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="13" ht="15" customHeight="1" s="10">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ012</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="14" ht="15" customHeight="1" s="10">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ013</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1027,7 +1027,7 @@
     <row r="15" ht="15" customHeight="1" s="10">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ014</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="16" ht="15" customHeight="1" s="10">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ015</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="17" ht="15" customHeight="1" s="10">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ016</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="18" ht="15" customHeight="1" s="10">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-1AFJ017</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="19" ht="15" customHeight="1" s="10">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ018</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="20" ht="15" customHeight="1" s="10">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ019</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="21" ht="15" customHeight="1" s="10">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ020</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="22" ht="15" customHeight="1" s="10">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ021</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="23" ht="15" customHeight="1" s="10">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ022</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="24" ht="15" customHeight="1" s="10">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ023</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="25" ht="15" customHeight="1" s="10">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ024</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="26" ht="15" customHeight="1" s="10">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ025</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="27" ht="15" customHeight="1" s="10">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ026</t>
+          <t>NJ-20240116-XXFJ01</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240117-1AFJ01</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240117-1AFJ01</t>
+          <t>NJ-20240130-1AFJ01</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="7" ht="15" customHeight="1" s="10">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="8" ht="15" customHeight="1" s="10">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="9" ht="15" customHeight="1" s="10">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="10" ht="15" customHeight="1" s="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="11" ht="15" customHeight="1" s="10">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="12" ht="15" customHeight="1" s="10">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="13" ht="15" customHeight="1" s="10">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="14" ht="15" customHeight="1" s="10">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1027,7 +1027,7 @@
     <row r="15" ht="15" customHeight="1" s="10">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="16" ht="15" customHeight="1" s="10">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="17" ht="15" customHeight="1" s="10">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240130-XXFJ01</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="18" ht="15" customHeight="1" s="10">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="19" ht="15" customHeight="1" s="10">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="20" ht="15" customHeight="1" s="10">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="21" ht="15" customHeight="1" s="10">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="22" ht="15" customHeight="1" s="10">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="23" ht="15" customHeight="1" s="10">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="24" ht="15" customHeight="1" s="10">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="25" ht="15" customHeight="1" s="10">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="26" ht="15" customHeight="1" s="10">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="27" ht="15" customHeight="1" s="10">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ01</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="28" ht="15" customHeight="1" s="10">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240116-XXFJ027</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="29" ht="15" customHeight="1" s="10">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@8</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
@@ -1582,7 +1582,7 @@
     <row r="30" ht="15" customHeight="1" s="10">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-C-1@9</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
@@ -1619,7 +1619,7 @@
     <row r="31" ht="15" customHeight="1" s="10">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-201-B-1@3</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="32" ht="15" customHeight="1" s="10">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>NJ-20230808-101-D-1@1</t>
+          <t>NJ-20240124-XXFJ01</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr">

--- a/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
+++ b/data/import_excel/df-文库富集-结果表批量粘贴导入.xlsx
@@ -546,7 +546,7 @@
     <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-1AFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="15" customHeight="1" s="10">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -731,7 +731,7 @@
     <row r="7" ht="15" customHeight="1" s="10">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="8" ht="15" customHeight="1" s="10">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="9" ht="15" customHeight="1" s="10">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="10" ht="15" customHeight="1" s="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="11" ht="15" customHeight="1" s="10">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="12" ht="15" customHeight="1" s="10">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="13" ht="15" customHeight="1" s="10">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="14" ht="15" customHeight="1" s="10">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1027,7 +1027,7 @@
     <row r="15" ht="15" customHeight="1" s="10">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="16" ht="15" customHeight="1" s="10">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="17" ht="15" customHeight="1" s="10">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240130-XXFJ01</t>
+          <t>NJ-20240220-XXFJ01</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="18" ht="15" customHeight="1" s="10">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240219-XXFJ01</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="19" ht="15" customHeight="1" s="10">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="20" ht="15" customHeight="1" s="10">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="21" ht="15" customHeight="1" s="10">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="22" ht="15" customHeight="1" s="10">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>NJ-20240124-XXFJ01</t>
+          <t>NJ-20240208-XXFJ01</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
